--- a/ResourceFiles/Contoso Chai Tea market trends.xlsx
+++ b/ResourceFiles/Contoso Chai Tea market trends.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://microsoft-my.sharepoint.com/personal/tfrink_microsoft_com/Documents/Documents/BUSS/Learn courses/MS-4004 - V2 Mar 2025/Source docs/LP2-Empower your workforce with M365 use cases/M4-Marketing use case/track changes/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://microsoft-my.sharepoint.com/personal/tfrink_microsoft_com/Documents/MS-4004 lab files/Reused files/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="168" documentId="8_{E9940EB0-3E9A-4FED-B851-3DB695644D9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4D73B87C-E08B-47FC-A4B5-C4FDA62F05EE}"/>
@@ -158,6 +158,23 @@
   </cellStyles>
   <dxfs count="4">
     <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -186,23 +203,6 @@
         <bottom/>
       </border>
     </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -217,10 +217,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1CE8BEAE-8A12-499A-8901-FF2A3BC6FCA5}" name="Table1" displayName="Table1" ref="A1:F13" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="3" tableBorderDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1CE8BEAE-8A12-499A-8901-FF2A3BC6FCA5}" name="Table1" displayName="Table1" ref="A1:F13" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="2" tableBorderDxfId="1">
   <autoFilter ref="A1:F13" xr:uid="{1CE8BEAE-8A12-499A-8901-FF2A3BC6FCA5}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{2296BE30-301E-4EF2-95CF-F0BE896BB528}" name="Month" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{2296BE30-301E-4EF2-95CF-F0BE896BB528}" name="Month" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{8B57F1F3-5DDD-45B5-B113-D6F8CB97F466}" name="Total Chai Sales (units)"/>
     <tableColumn id="3" xr3:uid="{309F5893-C2A7-45AA-8E9B-0A3B5DAEA895}" name="Artisanal Chai Sales (units)"/>
     <tableColumn id="4" xr3:uid="{D89A811E-F659-4160-AB40-E17EB19BA36B}" name="Premade Chai Sales (units)"/>
@@ -816,6 +816,6 @@
 
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
-  <clbl:label id="{87ba5c36-b7cf-4793-bbc2-bd5b3a9f95ca}" enabled="1" method="Privileged" siteId="{72f988bf-86f1-41af-91ab-2d7cd011db47}" removed="0"/>
+  <clbl:label id="{f42aa342-8706-4288-bd11-ebb85995028c}" enabled="1" method="Privileged" siteId="{72f988bf-86f1-41af-91ab-2d7cd011db47}" removed="0"/>
 </clbl:labelList>
 </file>